--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3462730.549461775</v>
+        <v>3460187.432493177</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7895435.432243529</v>
+        <v>7895435.43224353</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>239.8079481415051</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>92.72679982914734</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="H2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>76.8499928797244</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>110.5101541774384</v>
       </c>
       <c r="D3" t="n">
-        <v>38.57147065252583</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.29200224366472</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="W4" t="n">
-        <v>6.736480123410815</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>290.2905114143459</v>
       </c>
       <c r="C5" t="n">
-        <v>290.290511414346</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>290.290511414346</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>290.2905114143459</v>
       </c>
       <c r="F5" t="n">
-        <v>242.9456793794552</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.74220307430065</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157314</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>124.5474438837886</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.290511414346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>145.3986157821555</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>15.09724236790362</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
-        <v>17.04654778525955</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197632</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>65.26843048288725</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>260.2751064113301</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>259.6580847920584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>103.2789529957482</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>124.0961330064688</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>37.54513972594803</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>125.8152577453153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>29.24923305751711</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2767,16 +2767,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>251.2117044543522</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356917</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.2317925660203</v>
+        <v>268.3603872485085</v>
       </c>
       <c r="C2" t="n">
-        <v>959.2317925660203</v>
+        <v>268.3603872485085</v>
       </c>
       <c r="D2" t="n">
-        <v>717.0015419180354</v>
+        <v>268.3603872485085</v>
       </c>
       <c r="E2" t="n">
-        <v>717.0015419180354</v>
+        <v>268.3603872485085</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7712912700505</v>
+        <v>261.414886499305</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1078570991946</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470377</v>
+        <v>40.4188858447036</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192961</v>
+        <v>122.9820404192958</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605494</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M2" t="n">
-        <v>449.010109085957</v>
+        <v>449.0101090859559</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779394</v>
+        <v>643.3443219779381</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948989</v>
+        <v>813.5133472948974</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444252</v>
+        <v>924.2476725444239</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660203</v>
+        <v>959.231792566019</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660191</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660203</v>
+        <v>803.0167550628471</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660203</v>
+        <v>588.2168933305582</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660203</v>
+        <v>345.9866426825735</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660203</v>
+        <v>268.3603872485085</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660203</v>
+        <v>268.3603872485085</v>
       </c>
       <c r="X2" t="n">
-        <v>959.2317925660203</v>
+        <v>268.3603872485085</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.2317925660203</v>
+        <v>268.3603872485085</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>232.5987465996452</v>
+        <v>130.8110542123692</v>
       </c>
       <c r="C3" t="n">
-        <v>58.14571731851822</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467744</v>
+        <v>94.99670283953475</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303714</v>
+        <v>232.2263008552286</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849762</v>
+        <v>469.6361695153183</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376409</v>
+        <v>668.2929111679829</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064015</v>
+        <v>827.8052238367434</v>
       </c>
       <c r="P3" t="n">
-        <v>870.3780717337004</v>
+        <v>936.4948513640421</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660191</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682071</v>
+        <v>938.1198929682058</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682071</v>
+        <v>788.6531038308406</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682071</v>
+        <v>788.6531038308406</v>
       </c>
       <c r="U3" t="n">
-        <v>709.9811054793729</v>
+        <v>788.6531038308406</v>
       </c>
       <c r="V3" t="n">
-        <v>474.8289972476302</v>
+        <v>788.6531038308406</v>
       </c>
       <c r="W3" t="n">
-        <v>232.5987465996452</v>
+        <v>546.422853182856</v>
       </c>
       <c r="X3" t="n">
-        <v>232.5987465996452</v>
+        <v>338.5713529773232</v>
       </c>
       <c r="Y3" t="n">
-        <v>232.5987465996452</v>
+        <v>130.8110542123692</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.18463585132041</v>
+        <v>41.7018098348201</v>
       </c>
       <c r="C4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="D4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="E4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="F4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132038</v>
       </c>
       <c r="K4" t="n">
         <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477486</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223416</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584459</v>
+        <v>716.1585259030905</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470447</v>
+        <v>830.3658965470436</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456604</v>
+        <v>955.8134731456591</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660191</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660191</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660203</v>
+        <v>751.7915078184244</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660203</v>
+        <v>526.1623111307894</v>
       </c>
       <c r="U4" t="n">
-        <v>717.0015419180354</v>
+        <v>526.1623111307894</v>
       </c>
       <c r="V4" t="n">
-        <v>474.7712912700505</v>
+        <v>283.9320604828047</v>
       </c>
       <c r="W4" t="n">
-        <v>467.9667658928678</v>
+        <v>41.7018098348201</v>
       </c>
       <c r="X4" t="n">
-        <v>239.9772149948505</v>
+        <v>41.7018098348201</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.18463585132041</v>
+        <v>41.7018098348201</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>867.9393068550143</v>
+        <v>336.2623926609841</v>
       </c>
       <c r="C5" t="n">
-        <v>574.7165680526446</v>
+        <v>336.2623926609841</v>
       </c>
       <c r="D5" t="n">
-        <v>281.4938292502749</v>
+        <v>336.2623926609841</v>
       </c>
       <c r="E5" t="n">
-        <v>281.4938292502749</v>
+        <v>43.03965385861443</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941097</v>
+        <v>36.09415310941095</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314768</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314768</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314768</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951924</v>
+        <v>59.13673382951947</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444948</v>
+        <v>163.700268344495</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084626</v>
+        <v>330.3223409084629</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162847</v>
+        <v>547.3909387162849</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537025</v>
+        <v>772.5857417537026</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416885</v>
+        <v>971.8955472416887</v>
       </c>
       <c r="P5" t="n">
         <v>1107.500854171409</v>
@@ -4592,25 +4592,25 @@
         <v>1161.162045657384</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657384</v>
+        <v>1008.968216348564</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657384</v>
+        <v>1008.968216348564</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657384</v>
+        <v>755.2906303358675</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657384</v>
+        <v>755.2906303358675</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657384</v>
+        <v>755.2906303358675</v>
       </c>
       <c r="X5" t="n">
-        <v>1161.162045657384</v>
+        <v>629.4851314633537</v>
       </c>
       <c r="Y5" t="n">
-        <v>867.9393068550143</v>
+        <v>629.4851314633537</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.9296635529695</v>
+        <v>170.0905295819916</v>
       </c>
       <c r="C6" t="n">
-        <v>477.9296635529695</v>
+        <v>170.0905295819916</v>
       </c>
       <c r="D6" t="n">
-        <v>328.9952538917182</v>
+        <v>170.0905295819916</v>
       </c>
       <c r="E6" t="n">
-        <v>169.7577988862627</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314768</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314768</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314768</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314768</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="J6" t="n">
         <v>25.79522430508906</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063289</v>
+        <v>235.7315125838837</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119402</v>
+        <v>393.053729889495</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702522</v>
+        <v>595.9982052478071</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269127</v>
+        <v>818.7226619044675</v>
       </c>
       <c r="O6" t="n">
-        <v>872.866697514543</v>
+        <v>1000.252231792098</v>
       </c>
       <c r="P6" t="n">
         <v>1126.612649313224</v>
@@ -4668,28 +4668,28 @@
         <v>1161.162045657384</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891825</v>
+        <v>1145.912305891824</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891825</v>
+        <v>998.1992781905708</v>
       </c>
       <c r="T6" t="n">
-        <v>1128.693570755199</v>
+        <v>801.5905506528511</v>
       </c>
       <c r="U6" t="n">
-        <v>1128.693570755199</v>
+        <v>573.4579748338024</v>
       </c>
       <c r="V6" t="n">
-        <v>893.5414625234562</v>
+        <v>338.3058666020597</v>
       </c>
       <c r="W6" t="n">
-        <v>893.5414625234562</v>
+        <v>338.3058666020597</v>
       </c>
       <c r="X6" t="n">
-        <v>685.6899623179233</v>
+        <v>338.3058666020597</v>
       </c>
       <c r="Y6" t="n">
-        <v>477.9296635529695</v>
+        <v>338.3058666020597</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>612.3203838254432</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="C7" t="n">
-        <v>443.3842008975363</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="D7" t="n">
-        <v>293.2675614852006</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="E7" t="n">
-        <v>145.3544679028075</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="F7" t="n">
-        <v>145.3544679028075</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="G7" t="n">
-        <v>145.3544679028075</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="H7" t="n">
-        <v>145.3544679028075</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314768</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314768</v>
+        <v>23.22324091314767</v>
       </c>
       <c r="K7" t="n">
         <v>133.2846894279146</v>
@@ -4750,25 +4750,25 @@
         <v>967.6652614208757</v>
       </c>
       <c r="S7" t="n">
-        <v>967.6652614208757</v>
+        <v>761.6044561527971</v>
       </c>
       <c r="T7" t="n">
-        <v>967.6652614208757</v>
+        <v>761.6044561527971</v>
       </c>
       <c r="U7" t="n">
-        <v>967.6652614208757</v>
+        <v>761.6044561527971</v>
       </c>
       <c r="V7" t="n">
-        <v>901.7375538624037</v>
+        <v>506.9199679469102</v>
       </c>
       <c r="W7" t="n">
-        <v>612.3203838254432</v>
+        <v>244.0158200566778</v>
       </c>
       <c r="X7" t="n">
-        <v>612.3203838254432</v>
+        <v>244.0158200566778</v>
       </c>
       <c r="Y7" t="n">
-        <v>612.3203838254432</v>
+        <v>23.22324091314767</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>983.638880763154</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886161</v>
+        <v>614.6763638227424</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818656</v>
+        <v>614.6763638227424</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>228.8881112244981</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>221.9426104752947</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>983.638880763154</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4863,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919907</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>643.5623317901023</v>
+        <v>535.0593816855418</v>
       </c>
       <c r="C10" t="n">
-        <v>474.6261488621955</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D10" t="n">
-        <v>324.5095094498597</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>176.5964158674666</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1495.938330028516</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1272.959849223251</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>983.8415117270893</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>983.8415117270893</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>983.8415117270893</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>755.8519608290719</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>535.0593816855418</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,31 +5027,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.6680198981028</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>467.7318369701959</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
         <v>317.6151975578602</v>
@@ -5194,16 +5194,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5276,7 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5595,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5753,19 +5753,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6230,46 +6230,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6467,16 +6467,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7415,22 +7415,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,16 +7442,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928369</v>
+        <v>6.233205181928426</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8.287118509956997</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58.49750737927781</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.7846258892353</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,13 +8143,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>118.0172116724305</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>102.5492171288665</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>128.672256846015</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>128.6722568460152</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.0073097921335</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>55.21102825632927</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260455</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>34.97276993489191</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877455</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>694175.6468166395</v>
+        <v>694175.6468166393</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244622</v>
-      </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132555</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800896</v>
+        <v>652246.4444800892</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210865</v>
+        <v>55881.32342210893</v>
       </c>
       <c r="D3" t="n">
         <v>363279.8866276246</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353593</v>
+        <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440455</v>
+        <v>12992.59634440458</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666269</v>
+        <v>88656.33991666271</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
         <v>246054.660343104</v>
@@ -26427,34 +26427,34 @@
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683048</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437333</v>
+        <v>61145.7022343733</v>
       </c>
       <c r="C5" t="n">
         <v>65162.40123302699</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214991.3170960269</v>
+        <v>-214991.3170960265</v>
       </c>
       <c r="C6" t="n">
-        <v>392365.2521262227</v>
+        <v>392365.2521262224</v>
       </c>
       <c r="D6" t="n">
-        <v>159294.884074174</v>
+        <v>159294.8840741742</v>
       </c>
       <c r="E6" t="n">
-        <v>125005.7691179723</v>
+        <v>124971.0311925365</v>
       </c>
       <c r="F6" t="n">
-        <v>632491.2107425177</v>
+        <v>632456.472817082</v>
       </c>
       <c r="G6" t="n">
-        <v>632491.210742518</v>
+        <v>632456.4728170824</v>
       </c>
       <c r="H6" t="n">
-        <v>632491.2107425178</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="I6" t="n">
-        <v>632491.2107425177</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="J6" t="n">
-        <v>569746.8999589819</v>
+        <v>569712.1620335466</v>
       </c>
       <c r="K6" t="n">
-        <v>619498.6143981135</v>
+        <v>619463.8764726776</v>
       </c>
       <c r="L6" t="n">
-        <v>543834.8708258553</v>
+        <v>543800.1329004192</v>
       </c>
       <c r="M6" t="n">
-        <v>499883.9170135913</v>
+        <v>499849.1790881557</v>
       </c>
       <c r="N6" t="n">
-        <v>632491.210742518</v>
+        <v>632456.4728170823</v>
       </c>
       <c r="O6" t="n">
-        <v>632491.2107425178</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="P6" t="n">
-        <v>632491.2107425181</v>
+        <v>632456.4728170821</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
         <v>636.9329421575576</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="C4" t="n">
-        <v>290.290511414346</v>
+        <v>290.2905114143459</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949252</v>
+        <v>43.45684181949275</v>
       </c>
       <c r="D3" t="n">
         <v>297.1319499599817</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284091</v>
+        <v>50.48256327284113</v>
       </c>
       <c r="D4" t="n">
         <v>350.2943206856929</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
         <v>50.48256327284113</v>
@@ -27042,7 +27042,7 @@
         <v>350.2943206856929</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284091</v>
+        <v>50.48256327284113</v>
       </c>
       <c r="L4" t="n">
         <v>350.2943206856929</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002064</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>320.1901041167894</v>
+        <v>173.108955804432</v>
       </c>
       <c r="H2" t="n">
-        <v>75.23293593371048</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>11.34683808079586</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>250.9022655904105</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>62.19834481087737</v>
       </c>
       <c r="D3" t="n">
-        <v>108.8735949121129</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941453</v>
+        <v>11.88703501941484</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>144.9548188549631</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>46.45270651659192</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232292</v>
+        <v>12.32969518232323</v>
       </c>
       <c r="W4" t="n">
-        <v>279.7865182131802</v>
+        <v>46.71505019508623</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>92.44333024913465</v>
       </c>
       <c r="C5" t="n">
-        <v>74.98238035666157</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>64.39253020633697</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>91.63985865791585</v>
       </c>
       <c r="F5" t="n">
-        <v>163.9303663622562</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157314</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>245.1836567946804</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.9474272417076</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>12.24646467324541</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.9735104574378</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242411</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>177.5960924770829</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
         <v>12.15545075340516</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153979</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
@@ -27831,16 +27831,16 @@
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>186.8692128409407</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>26.24789192526089</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802033</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>308.2687497772058</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>21.3249150164624</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>157.1173206357894</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.86741080007012e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J2" t="n">
         <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712531</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426701</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457577</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T2" t="n">
         <v>10.44398644916534</v>
@@ -31124,43 +31124,43 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182841</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J3" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S3" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,25 +31200,25 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784131</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
         <v>151.2683017714137</v>
@@ -31227,19 +31227,19 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104783</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781363</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,10 +32315,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,7 +33974,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>21.44873736705378</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>83.39712583292146</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012659</v>
+        <v>140.7360160012657</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802098</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.297184739376</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605652</v>
+        <v>171.887904360565</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874004</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>35.33749497130808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268387</v>
+        <v>76.57784544264078</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714079</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622271</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="N3" t="n">
-        <v>200.663375406732</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502633</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>109.787502552827</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.75123316395953</v>
+        <v>22.96660727472414</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,22 +34860,22 @@
         <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>146.8505817925181</v>
+        <v>207.3430310295332</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>115.3609804484374</v>
       </c>
       <c r="P4" t="n">
         <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899353401</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>2.597963022163015</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125232</v>
+        <v>212.0568568472673</v>
       </c>
       <c r="L6" t="n">
         <v>158.9113306117286</v>
@@ -35030,7 +35030,7 @@
         <v>183.3632019066973</v>
       </c>
       <c r="P6" t="n">
-        <v>256.3090422208901</v>
+        <v>127.6367853748749</v>
       </c>
       <c r="Q6" t="n">
         <v>34.89838014561582</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>553.2044093850075</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>617.475165594803</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,10 +35963,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,7 +37622,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
